--- a/app/config/tables/QPS/forms/QPS/QPS.xlsx
+++ b/app/config/tables/QPS/forms/QPS/QPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\app-designer\app\config\tables\QPS\forms\QPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C834501C-7846-45BA-AC5C-508B350CB8DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CF7076-9B15-4E88-9E87-15CE24C8EE0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33870" yWindow="5940" windowWidth="20520" windowHeight="12150" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="queries" sheetId="5" r:id="rId4"/>
     <sheet name="model" sheetId="4" r:id="rId5"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$C$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="147">
   <si>
     <t>type</t>
   </si>
@@ -114,9 +115,6 @@
     <t>barcode</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>Escanea o codigo de barra</t>
   </si>
   <si>
@@ -187,20 +185,6 @@
   </si>
   <si>
     <t>hideInContents</t>
-  </si>
-  <si>
-    <t>_.chain(context)
-.uniq(function(y){return y.local;})
-.map(function(place){
-    return {
-        data_value:place.local, 
-        region: place.region,
-        sector: place.sector,
-        zona: place.zona,
-        display:{title: {text: place.local} }
-    } 
-    })
-.value()</t>
   </si>
   <si>
     <t>csv</t>
@@ -454,35 +438,75 @@
     <t>Área sanitária</t>
   </si>
   <si>
+    <t>Tabanca</t>
+  </si>
+  <si>
+    <t>Nº de equipa</t>
+  </si>
+  <si>
+    <t>Telefone Chefe equipa (MTN)</t>
+  </si>
+  <si>
+    <t>Telefone Chefe equipa (Orange)</t>
+  </si>
+  <si>
+    <t>Telefone RAS: (MTN)</t>
+  </si>
+  <si>
+    <t>Telefone RAS: (Orange)</t>
+  </si>
+  <si>
+    <t>id_paciente</t>
+  </si>
+  <si>
+    <t>_.chain(context)
+.uniq(function(y){return y.local;})
+.map(function(place){
+    return {
+        data_value:place.local, 
+        region: place.region,
+        sector: place.sector,
+        display:{title: {text: place.local} }
+    } 
+    })
+.value()</t>
+  </si>
+  <si>
+    <t>choice_item.region === data('region') &amp;&amp; choice_item.sector===data('sector')</t>
+  </si>
+  <si>
     <t>choice_item.region === data('region')</t>
   </si>
   <si>
-    <t>Tabanca</t>
-  </si>
-  <si>
-    <t>choice_item.region === data('region') &amp;&amp; choice_item.sector===data('sector') &amp;&amp; choice_item.zona===data('zona')</t>
-  </si>
-  <si>
-    <t>Nº de equipa</t>
-  </si>
-  <si>
-    <t>Telefone Chefe equipa (MTN)</t>
-  </si>
-  <si>
-    <t>Telefone Chefe equipa (Orange)</t>
-  </si>
-  <si>
-    <t>Telefone RAS: (MTN)</t>
-  </si>
-  <si>
-    <t>Telefone RAS: (Orange)</t>
+    <t>af</t>
+  </si>
+  <si>
+    <t>Numero de Agregado familiar</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>elementType</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>custom_date</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Makes the date widget DD/MM/YYYY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -533,6 +557,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -542,7 +574,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -557,6 +589,15 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -576,7 +617,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -653,6 +694,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1075,14 +1118,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
@@ -1097,7 +1140,7 @@
     <col min="11" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1160,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
@@ -1132,31 +1175,31 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>47</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>48</v>
-      </c>
-      <c r="T1" t="s">
-        <v>49</v>
       </c>
       <c r="U1" t="s">
         <v>19</v>
@@ -1165,274 +1208,281 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C3" s="25"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J4" s="24"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C18" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C19" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
         <v>36</v>
       </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C20" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
         <v>38</v>
       </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H20"/>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.5">
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
@@ -1442,137 +1492,137 @@
       <c r="I28" s="1"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C30" s="25"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.5">
       <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.5">
+      <c r="C32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="13"/>
@@ -1582,7 +1632,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
@@ -1592,285 +1642,285 @@
       <c r="I44" s="1"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C46" s="25"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C47" s="2" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J47" s="24"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C60" s="25"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C61" s="2" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J61" s="24"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J61" s="24"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C69" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A70" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
       <c r="C72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D73" s="10"/>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="16"/>
@@ -1882,163 +1932,163 @@
       <c r="I74" s="3"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="11" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="8"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B76" s="12"/>
       <c r="C76" s="11" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B77" s="12"/>
       <c r="C77" s="11" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B78" s="12"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B79" s="12"/>
       <c r="C79" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A80" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
     </row>
-    <row r="81" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B81" s="12"/>
       <c r="C81" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D81" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
     </row>
-    <row r="83" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A84" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B84" s="12"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A85" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B85" s="12"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B86" s="12"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B87" s="12"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B88" s="12"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B89" s="12"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B90" s="12"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B91" s="12"/>
       <c r="C91" s="19"/>
       <c r="D91"/>
@@ -2047,7 +2097,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B92" s="12"/>
       <c r="C92" s="19"/>
       <c r="D92"/>
@@ -2056,7 +2106,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B93" s="12"/>
       <c r="C93" s="19"/>
       <c r="D93"/>
@@ -2065,224 +2115,224 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B94" s="12"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B95" s="12"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B97" s="12"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B98" s="12"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B99" s="12"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B100" s="12"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B101" s="12"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B103" s="12"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B104" s="12"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B105" s="12"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="J105" s="6"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B106" s="12"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B108" s="12"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B109" s="12"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B110" s="12"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B111" s="12"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="J111" s="6"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B112" s="12"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B114" s="12"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B116" s="12"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B117" s="12"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B118" s="12"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B119" s="12"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B120" s="12"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B121" s="12"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B122" s="12"/>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B123" s="12"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B124" s="12"/>
       <c r="D124" s="14"/>
       <c r="E124" s="13"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B125" s="12"/>
       <c r="D125" s="14"/>
       <c r="E125" s="13"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B126" s="13"/>
       <c r="D126" s="14"/>
       <c r="E126" s="13"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B127" s="12"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B128" s="12"/>
       <c r="D128" s="14"/>
       <c r="E128" s="13"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B129" s="12"/>
       <c r="D129" s="14"/>
       <c r="E129" s="13"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B130" s="12"/>
       <c r="D130" s="14"/>
       <c r="E130" s="13"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B131" s="12"/>
       <c r="D131" s="14"/>
       <c r="E131" s="13"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B132" s="12"/>
       <c r="D132" s="14"/>
       <c r="E132" s="13"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B133" s="12"/>
       <c r="D133" s="14"/>
       <c r="E133" s="13"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B134" s="13"/>
       <c r="D134" s="14"/>
       <c r="E134" s="13"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B135" s="12"/>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.5">
       <c r="B136" s="12"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="17"/>
@@ -2291,7 +2341,7 @@
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="17"/>
@@ -2301,7 +2351,7 @@
       <c r="G138" s="14"/>
       <c r="J138" s="6"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="17"/>
@@ -2311,7 +2361,7 @@
       <c r="G139" s="14"/>
       <c r="J139" s="6"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="17"/>
@@ -2320,7 +2370,7 @@
       <c r="F140" s="14"/>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="17"/>
@@ -2329,7 +2379,7 @@
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="17"/>
@@ -2338,7 +2388,7 @@
       <c r="F142" s="14"/>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="17"/>
@@ -2347,7 +2397,7 @@
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="17"/>
@@ -2356,7 +2406,7 @@
       <c r="F144" s="14"/>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A145" s="26"/>
       <c r="B145" s="26"/>
       <c r="C145" s="27"/>
@@ -2365,7 +2415,7 @@
       <c r="F145" s="26"/>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A146" s="26"/>
       <c r="B146" s="26"/>
       <c r="C146" s="27"/>
@@ -2374,7 +2424,7 @@
       <c r="F146" s="26"/>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="17"/>
@@ -2383,7 +2433,7 @@
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="17"/>
@@ -2392,7 +2442,7 @@
       <c r="F148" s="14"/>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="17"/>
@@ -2401,7 +2451,7 @@
       <c r="F149" s="14"/>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="17"/>
@@ -2410,7 +2460,7 @@
       <c r="F150" s="14"/>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="17"/>
@@ -2419,7 +2469,7 @@
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="17"/>
@@ -2428,7 +2478,7 @@
       <c r="F152" s="14"/>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="17"/>
@@ -2437,147 +2487,147 @@
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
       <c r="E154" s="13"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
       <c r="E155" s="13"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
       <c r="E156" s="13"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
       <c r="E157" s="13"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
       <c r="E158" s="13"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
       <c r="E159" s="13"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C160" s="12"/>
       <c r="D160" s="12"/>
       <c r="E160" s="13"/>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C161" s="12"/>
       <c r="D161" s="12"/>
       <c r="E161" s="13"/>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C162" s="12"/>
       <c r="D162" s="12"/>
       <c r="E162" s="13"/>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C163" s="12"/>
       <c r="D163" s="12"/>
       <c r="E163" s="13"/>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C164" s="12"/>
       <c r="D164" s="12"/>
       <c r="E164" s="13"/>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C165" s="12"/>
       <c r="D165" s="12"/>
       <c r="E165" s="13"/>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C166" s="12"/>
       <c r="D166" s="12"/>
       <c r="E166" s="13"/>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C167" s="12"/>
       <c r="D167" s="12"/>
       <c r="E167" s="13"/>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C168" s="12"/>
       <c r="D168" s="12"/>
       <c r="E168" s="13"/>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C169" s="12"/>
       <c r="D169" s="12"/>
       <c r="E169" s="13"/>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C170" s="12"/>
       <c r="D170" s="12"/>
       <c r="E170" s="13"/>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C171" s="12"/>
       <c r="D171" s="12"/>
       <c r="E171" s="13"/>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C172" s="12"/>
       <c r="D172" s="12"/>
       <c r="E172" s="13"/>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C173" s="12"/>
       <c r="D173" s="12"/>
       <c r="E173" s="13"/>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C174" s="12"/>
       <c r="D174" s="12"/>
       <c r="E174" s="13"/>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C175" s="12"/>
       <c r="D175" s="12"/>
       <c r="E175" s="13"/>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C176" s="12"/>
       <c r="D176" s="12"/>
       <c r="E176" s="13"/>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C177" s="12"/>
       <c r="D177" s="12"/>
       <c r="E177" s="13"/>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C178" s="12"/>
       <c r="D178" s="12"/>
       <c r="E178" s="13"/>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C179" s="12"/>
       <c r="D179" s="12"/>
       <c r="E179" s="13"/>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C180" s="12"/>
       <c r="D180" s="12"/>
       <c r="E180" s="13"/>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
       <c r="E181" s="13"/>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C182" s="12"/>
       <c r="D182" s="12"/>
       <c r="E182" s="13"/>
@@ -2593,7 +2643,7 @@
     <mergeCell ref="E145:E146"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2606,11 +2656,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2618,7 +2668,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2629,671 +2679,671 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C26" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C30" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
@@ -3313,17 +3363,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3334,7 +3384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3342,7 +3392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3350,15 +3400,15 @@
         <v>2019070600</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3381,72 +3431,72 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="173.25" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3456,19 +3506,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="21" customWidth="1"/>
     <col min="2" max="2" width="40.375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -3476,425 +3526,433 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="B4" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>6</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>5</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="11" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="11" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="13" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="13" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="13" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="11" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A45" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="13" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="13" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="13" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3904,4 +3962,52 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8963453B-486F-4C08-8F61-5CB7B4D983AD}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="17.6875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/config/tables/QPS/forms/QPS/QPS.xlsx
+++ b/app/config/tables/QPS/forms/QPS/QPS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\app-designer\app\config\tables\QPS\forms\QPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\QPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CF7076-9B15-4E88-9E87-15CE24C8EE0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3329A5DF-F2A2-4315-B03D-561B91F814AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="155">
   <si>
     <t>type</t>
   </si>
@@ -279,15 +279,6 @@
     <t>r1d3</t>
   </si>
   <si>
-    <t>1º dia - ASC</t>
-  </si>
-  <si>
-    <t>2º dia - Mãe</t>
-  </si>
-  <si>
-    <t>3º dia - Mãe</t>
-  </si>
-  <si>
     <t>Vômitos</t>
   </si>
   <si>
@@ -318,30 +309,12 @@
     <t>ef_adveso_r1</t>
   </si>
   <si>
-    <t>Efeitos Adverso</t>
-  </si>
-  <si>
     <t>tem_adverso</t>
   </si>
   <si>
-    <t>Tem algun efeito adverso</t>
-  </si>
-  <si>
-    <t>selected(data('tem_adverso'),'1')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if </t>
-  </si>
-  <si>
-    <t>selected(data('ef_adverso'),'7')</t>
-  </si>
-  <si>
     <t>esp_ef_adverso_r1</t>
   </si>
   <si>
-    <t>Especica o efeito adverso</t>
-  </si>
-  <si>
     <t>r2d1</t>
   </si>
   <si>
@@ -457,6 +430,63 @@
   </si>
   <si>
     <t>id_paciente</t>
+  </si>
+  <si>
+    <t>choice_item.region === data('region') &amp;&amp; choice_item.sector===data('sector')</t>
+  </si>
+  <si>
+    <t>choice_item.region === data('region')</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>Numero de Agregado familiar</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>elementType</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>custom_date</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Makes the date widget DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>fieldName</t>
   </si>
   <si>
     <t>_.chain(context)
@@ -466,47 +496,41 @@
         data_value:place.local, 
         region: place.region,
         sector: place.sector,
-        display:{title: {text: place.local} }
+               display:{title: {text: place.local} }
     } 
     })
 .value()</t>
   </si>
   <si>
-    <t>choice_item.region === data('region') &amp;&amp; choice_item.sector===data('sector')</t>
-  </si>
-  <si>
-    <t>choice_item.region === data('region')</t>
-  </si>
-  <si>
-    <t>af</t>
-  </si>
-  <si>
-    <t>Numero de Agregado familiar</t>
-  </si>
-  <si>
-    <t>prompt_type_name</t>
-  </si>
-  <si>
-    <t>elementType</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>custom_date</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Makes the date widget DD/MM/YYYY</t>
+    <t>ronda</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>id_paciente=?</t>
+  </si>
+  <si>
+    <t>[data('id_paciente')]</t>
+  </si>
+  <si>
+    <t>{id_paciente: data('id_paciente')}</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>numero_sticker</t>
+  </si>
+  <si>
+    <t>nome_casa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -565,6 +589,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -617,7 +655,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -625,31 +663,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -664,9 +684,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -678,24 +695,29 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1116,27 +1138,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V182"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="7" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="6" customWidth="1"/>
     <col min="6" max="6" width="63" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="24.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="7"/>
+    <col min="10" max="10" width="10.75" style="5"/>
     <col min="11" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
@@ -1147,19 +1169,19 @@
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="13" t="s">
         <v>39</v>
       </c>
       <c r="H1" t="s">
@@ -1213,27 +1235,27 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C3" s="25"/>
+      <c r="C3" s="16"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="24"/>
+        <v>107</v>
+      </c>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C5" s="2"/>
@@ -1247,7 +1269,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.5">
@@ -1261,7 +1283,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.5">
@@ -1275,7 +1297,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.5">
@@ -1283,14 +1305,14 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>29</v>
@@ -1301,14 +1323,14 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
@@ -1321,7 +1343,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.5">
@@ -1332,12 +1354,12 @@
         <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C15" s="2"/>
       <c r="E15" s="2"/>
@@ -1349,7 +1371,7 @@
       <c r="C16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1357,11 +1379,11 @@
         <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="C18" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="C18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
@@ -1371,13 +1393,13 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="C19" s="19" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="C19" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
@@ -1387,15 +1409,15 @@
         <v>36</v>
       </c>
       <c r="F19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" t="s">
         <v>128</v>
       </c>
-      <c r="G19" t="s">
-        <v>138</v>
-      </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="C20" s="19" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="C20" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
@@ -1405,29 +1427,29 @@
         <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H20"/>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1435,10 +1457,10 @@
         <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1446,10 +1468,10 @@
         <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1457,10 +1479,10 @@
         <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1468,10 +1490,10 @@
         <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
@@ -1479,10 +1501,10 @@
         <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
@@ -1490,1157 +1512,412 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.5">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="C30" s="25"/>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="C30" s="16"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="C31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.5">
-      <c r="C32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>77</v>
-      </c>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C33" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="B33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="B34" s="6"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="B35" s="6"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="B36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="B37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="B38" s="6"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="B39" s="6"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="B40" s="6"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="B41" s="6"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="B42" s="6"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="4"/>
+      <c r="B43" s="6"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C46" s="25"/>
-      <c r="E46" s="2"/>
+      <c r="B46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J47" s="24"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C48" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C53" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A57" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C60" s="25"/>
-      <c r="E60" s="2"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C61" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J61" s="24"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C62" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C63" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A66" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C67" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A68" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A70" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A71" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C72" s="2"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="8"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B76" s="12"/>
-      <c r="C76" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B77" s="12"/>
-      <c r="C77" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B79" s="12"/>
-      <c r="C79" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A80" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B81" s="12"/>
-      <c r="C81" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A82" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-    </row>
-    <row r="83" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B83" s="13"/>
-      <c r="C83" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A84" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" s="12"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A85" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85" s="12"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B86" s="12"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B87" s="12"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B88" s="12"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B91" s="12"/>
-      <c r="C91" s="19"/>
-      <c r="D91"/>
-      <c r="E91" s="21"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B92" s="12"/>
-      <c r="C92" s="19"/>
-      <c r="D92"/>
-      <c r="E92" s="21"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B93" s="12"/>
-      <c r="C93" s="19"/>
-      <c r="D93"/>
-      <c r="E93" s="21"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B94" s="12"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B95" s="12"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B97" s="12"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B98" s="12"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B99" s="12"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B100" s="12"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B101" s="12"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B103" s="12"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B104" s="12"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B105" s="12"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="J105" s="6"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B106" s="12"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B108" s="12"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B109" s="12"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B110" s="12"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B111" s="12"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="J111" s="6"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B112" s="12"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B114" s="12"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B116" s="12"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B117" s="12"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B118" s="12"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B119" s="12"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B120" s="12"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B121" s="12"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B122" s="12"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B123" s="12"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B124" s="12"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="13"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B125" s="12"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="13"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B126" s="13"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="13"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B127" s="12"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="B128" s="12"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="13"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B129" s="12"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="13"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B130" s="12"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="13"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B131" s="12"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="13"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B132" s="12"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="13"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B133" s="12"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="13"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B134" s="13"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="13"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B135" s="12"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B136" s="12"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="J138" s="6"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A139" s="14"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="J139" s="6"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A140" s="14"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A141" s="14"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A142" s="14"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A144" s="14"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A145" s="26"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="14"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A146" s="26"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="27"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="14"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A147" s="14"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A148" s="14"/>
-      <c r="B148" s="14"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A149" s="14"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A150" s="14"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A151" s="14"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A152" s="14"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A153" s="14"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="13"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="13"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="13"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="13"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="13"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="13"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="13"/>
-    </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="13"/>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="13"/>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="13"/>
-    </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="13"/>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C165" s="12"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="13"/>
-    </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C166" s="12"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="13"/>
-    </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="13"/>
-    </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="13"/>
-    </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="13"/>
-    </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="13"/>
-    </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="13"/>
-    </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C172" s="12"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="13"/>
-    </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="13"/>
-    </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C174" s="12"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="13"/>
-    </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="13"/>
-    </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="13"/>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C177" s="12"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="13"/>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C178" s="12"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="13"/>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="13"/>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="13"/>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="13"/>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C182" s="12"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="13"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2755,79 +2032,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -3405,7 +2682,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -3428,75 +2705,127 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="61" customWidth="1"/>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="15.0625" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="10.8125" customWidth="1"/>
+    <col min="6" max="6" width="14.5625" customWidth="1"/>
+    <col min="7" max="7" width="25.1875" customWidth="1"/>
+    <col min="10" max="10" width="22.0625" customWidth="1"/>
+    <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2"/>
+      <c r="J2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:11" ht="157.5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="173.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="173.25" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>136</v>
+      <c r="K4" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3508,21 +2837,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="40.375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="40.375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3531,428 +2860,436 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52" s="19" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
+      <c r="B52" s="19" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3966,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8963453B-486F-4C08-8F61-5CB7B4D983AD}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3979,32 +3316,46 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>143</v>
+      <c r="C1" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/QPS/forms/QPS/QPS.xlsx
+++ b/app/config/tables/QPS/forms/QPS/QPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\QPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3329A5DF-F2A2-4315-B03D-561B91F814AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF4FFA-E1A7-4303-9F73-B98C108F10F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="127">
   <si>
     <t>type</t>
   </si>
@@ -115,9 +115,6 @@
     <t>barcode</t>
   </si>
   <si>
-    <t>Escanea o codigo de barra</t>
-  </si>
-  <si>
     <t>nome</t>
   </si>
   <si>
@@ -139,21 +136,12 @@
     <t>mae</t>
   </si>
   <si>
-    <t>region_csv</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
-    <t>sector_csv</t>
-  </si>
-  <si>
     <t>sector</t>
   </si>
   <si>
-    <t>local_csv</t>
-  </si>
-  <si>
     <t>local</t>
   </si>
   <si>
@@ -187,26 +175,6 @@
     <t>hideInContents</t>
   </si>
   <si>
-    <t>csv</t>
-  </si>
-  <si>
-    <t>_.chain(context)
-.uniq(function(x){return x.sector;})
-.map(function(place){
-    return {
-        data_value:place.sector, 
-        region: place.region,
-        display:{title: {text: place.sector} }
-    } 
-    })
-.value()</t>
-  </si>
-  <si>
-    <t>_.chain(context).pluck('region').uniq().map(function(region){
-return {data_value:region, display:{title: {text: region} } };
-}).value()</t>
-  </si>
-  <si>
     <t>callback</t>
   </si>
   <si>
@@ -219,9 +187,6 @@
     <t>query_name</t>
   </si>
   <si>
-    <t>"tabancas.csv"</t>
-  </si>
-  <si>
     <t>equipa</t>
   </si>
   <si>
@@ -261,12 +226,6 @@
     <t>Não</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>end if</t>
-  </si>
-  <si>
     <t>data_inscricao</t>
   </si>
   <si>
@@ -372,78 +331,9 @@
     <t>Quimioprevenção do Paludismo Sazonal</t>
   </si>
   <si>
-    <t>Data da inscrição da criança</t>
-  </si>
-  <si>
-    <t>Nome e Apelido</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Idade ou data de nascimento?</t>
-  </si>
-  <si>
-    <t>selected(data('Data_ou_idade'),'1')</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>begin screen</t>
-  </si>
-  <si>
-    <t>Idades em anos</t>
-  </si>
-  <si>
-    <t>Idade em meses</t>
-  </si>
-  <si>
-    <t>end screen</t>
-  </si>
-  <si>
-    <t>Nome da Mãe</t>
-  </si>
-  <si>
-    <t>Região</t>
-  </si>
-  <si>
-    <t>Área sanitária</t>
-  </si>
-  <si>
-    <t>Tabanca</t>
-  </si>
-  <si>
-    <t>Nº de equipa</t>
-  </si>
-  <si>
-    <t>Telefone Chefe equipa (MTN)</t>
-  </si>
-  <si>
-    <t>Telefone Chefe equipa (Orange)</t>
-  </si>
-  <si>
-    <t>Telefone RAS: (MTN)</t>
-  </si>
-  <si>
-    <t>Telefone RAS: (Orange)</t>
-  </si>
-  <si>
     <t>id_paciente</t>
   </si>
   <si>
-    <t>choice_item.region === data('region') &amp;&amp; choice_item.sector===data('sector')</t>
-  </si>
-  <si>
-    <t>choice_item.region === data('region')</t>
-  </si>
-  <si>
-    <t>af</t>
-  </si>
-  <si>
-    <t>Numero de Agregado familiar</t>
-  </si>
-  <si>
     <t>prompt_type_name</t>
   </si>
   <si>
@@ -489,19 +379,6 @@
     <t>fieldName</t>
   </si>
   <si>
-    <t>_.chain(context)
-.uniq(function(y){return y.local;})
-.map(function(place){
-    return {
-        data_value:place.local, 
-        region: place.region,
-        sector: place.sector,
-               display:{title: {text: place.local} }
-    } 
-    })
-.value()</t>
-  </si>
-  <si>
     <t>ronda</t>
   </si>
   <si>
@@ -524,6 +401,24 @@
   </si>
   <si>
     <t>nome_casa</t>
+  </si>
+  <si>
+    <t>ID = ?</t>
+  </si>
+  <si>
+    <t>[data('ID')]</t>
+  </si>
+  <si>
+    <t>linked_d1</t>
+  </si>
+  <si>
+    <t>linked_n_ronda</t>
+  </si>
+  <si>
+    <t>n_ronda</t>
+  </si>
+  <si>
+    <t>d1</t>
   </si>
 </sst>
 </file>
@@ -695,9 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -708,15 +600,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1140,11 +1035,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1182,7 +1077,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
@@ -1197,31 +1092,31 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>44</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" t="s">
-        <v>48</v>
       </c>
       <c r="U1" t="s">
         <v>19</v>
@@ -1231,278 +1126,126 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A4"/>
       <c r="C4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="15"/>
+        <v>114</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C5" s="2"/>
+      <c r="C5"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="C6"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A15" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>118</v>
-      </c>
+      <c r="C18" s="12"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
+      <c r="C19" s="12"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
       <c r="H19"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" t="s">
-        <v>127</v>
-      </c>
+      <c r="C20" s="12"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
       <c r="H20"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="C23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="C25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="C26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.5">
       <c r="C28" s="1"/>
@@ -1515,18 +1258,11 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C30" s="16"/>
+      <c r="C30" s="15"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.5">
@@ -1684,21 +1420,21 @@
       <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="22"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="23"/>
       <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="22"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="23"/>
       <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.5">
@@ -1958,46 +1694,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -2006,24 +1742,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
@@ -2032,79 +1768,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -2682,7 +2418,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -2705,15 +2441,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="15.0625" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
@@ -2724,109 +2461,144 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="J2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="157.5" x14ac:dyDescent="0.5">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="173.25" x14ac:dyDescent="0.5">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>146</v>
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>152</v>
-      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H10" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2837,7 +2609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -2848,10 +2620,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2860,15 +2632,15 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>72</v>
+      <c r="A3" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2876,7 +2648,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
@@ -2884,7 +2656,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
@@ -2892,15 +2664,15 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="25" t="s">
-        <v>137</v>
+      <c r="A7" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
@@ -2908,7 +2680,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
@@ -2916,7 +2688,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
@@ -2924,7 +2696,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
@@ -2932,7 +2704,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
@@ -2940,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
@@ -2948,7 +2720,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
@@ -2956,7 +2728,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
@@ -2964,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -2972,7 +2744,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -2980,7 +2752,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -2988,35 +2760,35 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
@@ -3024,15 +2796,15 @@
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
@@ -3040,35 +2812,35 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
@@ -3076,15 +2848,15 @@
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
@@ -3092,39 +2864,39 @@
         <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
@@ -3132,15 +2904,15 @@
         <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
@@ -3148,39 +2920,39 @@
         <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
@@ -3188,15 +2960,15 @@
         <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
@@ -3204,31 +2976,31 @@
         <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>154</v>
+      <c r="A52" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
@@ -3316,46 +3088,46 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>133</v>
+      <c r="C1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/QPS/forms/QPS/QPS.xlsx
+++ b/app/config/tables/QPS/forms/QPS/QPS.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\QPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF4FFA-E1A7-4303-9F73-B98C108F10F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117E2C92-D294-4A6B-BD32-846829CD90EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="settings" sheetId="3" r:id="rId1"/>
+    <sheet name="survey" sheetId="1" r:id="rId2"/>
+    <sheet name="choices" sheetId="2" r:id="rId3"/>
     <sheet name="queries" sheetId="5" r:id="rId4"/>
     <sheet name="model" sheetId="4" r:id="rId5"/>
     <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$C$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$C$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
   <si>
     <t>type</t>
   </si>
@@ -133,18 +133,12 @@
     <t>mes</t>
   </si>
   <si>
-    <t>mae</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
     <t>sector</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>choice_filter</t>
   </si>
   <si>
@@ -229,15 +223,6 @@
     <t>data_inscricao</t>
   </si>
   <si>
-    <t>r1d1</t>
-  </si>
-  <si>
-    <t>r1d2</t>
-  </si>
-  <si>
-    <t>r1d3</t>
-  </si>
-  <si>
     <t>Vômitos</t>
   </si>
   <si>
@@ -265,69 +250,9 @@
     <t>select_multiple</t>
   </si>
   <si>
-    <t>ef_adveso_r1</t>
-  </si>
-  <si>
     <t>tem_adverso</t>
   </si>
   <si>
-    <t>esp_ef_adverso_r1</t>
-  </si>
-  <si>
-    <t>r2d1</t>
-  </si>
-  <si>
-    <t>r2d2</t>
-  </si>
-  <si>
-    <t>r2d3</t>
-  </si>
-  <si>
-    <t>ef_adveso_r2</t>
-  </si>
-  <si>
-    <t>esp_ef_adverso_r2</t>
-  </si>
-  <si>
-    <t>tem_adverso_r2</t>
-  </si>
-  <si>
-    <t>r3d1</t>
-  </si>
-  <si>
-    <t>r3d2</t>
-  </si>
-  <si>
-    <t>r3d3</t>
-  </si>
-  <si>
-    <t>tem_adverso_r3</t>
-  </si>
-  <si>
-    <t>ef_adveso_r3</t>
-  </si>
-  <si>
-    <t>esp_ef_adverso_r3</t>
-  </si>
-  <si>
-    <t>r4d1</t>
-  </si>
-  <si>
-    <t>r4d2</t>
-  </si>
-  <si>
-    <t>r4d3</t>
-  </si>
-  <si>
-    <t>tem_adverso_r4</t>
-  </si>
-  <si>
-    <t>ef_adveso_r4</t>
-  </si>
-  <si>
-    <t>esp_ef_adverso_r4</t>
-  </si>
-  <si>
     <t>Quimioprevenção do Paludismo Sazonal</t>
   </si>
   <si>
@@ -419,6 +344,75 @@
   </si>
   <si>
     <t>d1</t>
+  </si>
+  <si>
+    <t>letra_sticker</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>tabanca</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>abrir_ronda</t>
+  </si>
+  <si>
+    <t>consentimento</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>ef_adveso</t>
+  </si>
+  <si>
+    <t>esp_ef_adverso</t>
+  </si>
+  <si>
+    <t>dx_tto</t>
+  </si>
+  <si>
+    <t>febre</t>
+  </si>
+  <si>
+    <t>tdr</t>
+  </si>
+  <si>
+    <t>TDR_positivo</t>
+  </si>
+  <si>
+    <t>tto_ACT</t>
+  </si>
+  <si>
+    <t>tranferencia</t>
+  </si>
+  <si>
+    <t>motivo</t>
+  </si>
+  <si>
+    <t>inelegivel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple </t>
+  </si>
+  <si>
+    <t>razao</t>
+  </si>
+  <si>
+    <t>esp_razao</t>
+  </si>
+  <si>
+    <t>refusal_statement</t>
+  </si>
+  <si>
+    <t>survey_complete</t>
   </si>
 </sst>
 </file>
@@ -550,7 +544,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -589,15 +583,11 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -607,10 +597,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1032,10 +1025,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>2019072601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1077,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
@@ -1092,31 +1153,31 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>41</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>42</v>
-      </c>
-      <c r="S1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" t="s">
-        <v>44</v>
       </c>
       <c r="U1" t="s">
         <v>19</v>
@@ -1130,16 +1191,16 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C3" s="15"/>
+      <c r="C3" s="14"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4"/>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1262,7 +1323,7 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C30" s="15"/>
+      <c r="C30" s="14"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.5">
@@ -1665,7 +1726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D238"/>
   <sheetViews>
@@ -1700,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -1711,12 +1772,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1727,13 +1788,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -1742,24 +1803,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
@@ -1768,79 +1829,79 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -2363,74 +2424,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>2019070600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2445,7 +2438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2455,150 +2448,152 @@
     <col min="3" max="3" width="15.0625" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="10.8125" customWidth="1"/>
-    <col min="6" max="6" width="14.5625" customWidth="1"/>
-    <col min="7" max="7" width="25.1875" customWidth="1"/>
+    <col min="6" max="6" width="23.1875" customWidth="1"/>
+    <col min="7" max="7" width="41.1875" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="22.0625" customWidth="1"/>
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="19" t="s">
+    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>45</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>118</v>
+        <v>92</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>118</v>
+        <v>97</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>118</v>
+        <v>97</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H7" s="20"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H8" s="20"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H9" s="20"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H10" s="20"/>
+      <c r="H10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2607,23 +2602,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="40.375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2632,87 +2627,87 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>62</v>
+      <c r="A3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="22" t="s">
-        <v>104</v>
+      <c r="A7" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
@@ -2720,23 +2715,23 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -2744,7 +2739,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -2752,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -2760,308 +2755,212 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>78</v>
+      <c r="A27" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>80</v>
+      <c r="A29" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>83</v>
+      <c r="A30" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="21" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>90</v>
+      <c r="A43" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3088,46 +2987,46 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>100</v>
+      <c r="C1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/QPS/forms/QPS/QPS.xlsx
+++ b/app/config/tables/QPS/forms/QPS/QPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\QPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117E2C92-D294-4A6B-BD32-846829CD90EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FF99A9-07F7-49DB-A7C9-78F1280C21FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$C$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
   <si>
     <t>type</t>
   </si>
@@ -247,12 +247,6 @@
     <t>efeito_adverso</t>
   </si>
   <si>
-    <t>select_multiple</t>
-  </si>
-  <si>
-    <t>tem_adverso</t>
-  </si>
-  <si>
     <t>Quimioprevenção do Paludismo Sazonal</t>
   </si>
   <si>
@@ -359,60 +353,6 @@
   </si>
   <si>
     <t>abrir_ronda</t>
-  </si>
-  <si>
-    <t>consentimento</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>d3</t>
-  </si>
-  <si>
-    <t>ef_adveso</t>
-  </si>
-  <si>
-    <t>esp_ef_adverso</t>
-  </si>
-  <si>
-    <t>dx_tto</t>
-  </si>
-  <si>
-    <t>febre</t>
-  </si>
-  <si>
-    <t>tdr</t>
-  </si>
-  <si>
-    <t>TDR_positivo</t>
-  </si>
-  <si>
-    <t>tto_ACT</t>
-  </si>
-  <si>
-    <t>tranferencia</t>
-  </si>
-  <si>
-    <t>motivo</t>
-  </si>
-  <si>
-    <t>inelegivel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple </t>
-  </si>
-  <si>
-    <t>razao</t>
-  </si>
-  <si>
-    <t>esp_razao</t>
-  </si>
-  <si>
-    <t>refusal_statement</t>
-  </si>
-  <si>
-    <t>survey_complete</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1063,7 +1003,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2019072601</v>
+        <v>2019082600</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -1071,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -1197,10 +1137,10 @@
     <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4"/>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -2438,7 +2378,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2464,25 +2404,25 @@
         <v>45</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>44</v>
@@ -2493,86 +2433,86 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>90</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
@@ -2604,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2627,15 +2567,15 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2643,12 +2583,12 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>60</v>
@@ -2664,10 +2604,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
@@ -2688,7 +2628,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
@@ -2731,7 +2671,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -2739,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -2784,10 +2724,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
@@ -2795,164 +2735,84 @@
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>101</v>
-      </c>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>108</v>
-      </c>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>110</v>
-      </c>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="A32" s="14"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="A33" s="21"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>114</v>
-      </c>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>115</v>
-      </c>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>116</v>
-      </c>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>117</v>
-      </c>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>118</v>
-      </c>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>119</v>
-      </c>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>121</v>
-      </c>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>122</v>
-      </c>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>123</v>
-      </c>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>124</v>
-      </c>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="21"/>
@@ -2989,44 +2849,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/QPS/forms/QPS/QPS.xlsx
+++ b/app/config/tables/QPS/forms/QPS/QPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\QPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FF99A9-07F7-49DB-A7C9-78F1280C21FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B925854B-7CB2-488B-800B-06E915E82895}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
   <si>
     <t>type</t>
   </si>
@@ -310,9 +310,6 @@
     <t>[data('id_paciente')]</t>
   </si>
   <si>
-    <t>{id_paciente: data('id_paciente')}</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
@@ -322,24 +319,6 @@
     <t>nome_casa</t>
   </si>
   <si>
-    <t>ID = ?</t>
-  </si>
-  <si>
-    <t>[data('ID')]</t>
-  </si>
-  <si>
-    <t>linked_d1</t>
-  </si>
-  <si>
-    <t>linked_n_ronda</t>
-  </si>
-  <si>
-    <t>n_ronda</t>
-  </si>
-  <si>
-    <t>d1</t>
-  </si>
-  <si>
     <t>letra_sticker</t>
   </si>
   <si>
@@ -353,13 +332,55 @@
   </si>
   <si>
     <t>abrir_ronda</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>chefe_af</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>dados_adicionais</t>
+  </si>
+  <si>
+    <t>dados_adicional</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>!data('mae') || !data ('chefe_af') || !data('AF')</t>
+  </si>
+  <si>
+    <t>{id_paciente: data('id_paciente'), vnome: data('nome')}</t>
+  </si>
+  <si>
+    <t>Por favor toca em editar deste ficheiro abaixo e introduza os dados que faltavam na ronda anterior</t>
+  </si>
+  <si>
+    <t>Por favor verifica os numeros de formularios que tem abaixo se corresponde com a ronda</t>
+  </si>
+  <si>
+    <t>comentario</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>comentario_2</t>
+  </si>
+  <si>
+    <t>comentario_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -432,6 +453,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -484,7 +511,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -535,9 +562,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -968,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1003,7 +1027,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2019082600</v>
+        <v>2019090200</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -1036,11 +1060,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1049,7 +1073,7 @@
     <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="7" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="6" customWidth="1"/>
     <col min="6" max="6" width="63" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
@@ -1134,7 +1158,7 @@
       <c r="C3" s="14"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4"/>
       <c r="C4" s="2" t="s">
         <v>87</v>
@@ -1142,27 +1166,52 @@
       <c r="D4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C5"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="C6"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C7" s="2"/>
-      <c r="E7" s="2"/>
+    <row r="7" spans="1:22" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C10" s="2"/>
@@ -1421,21 +1470,21 @@
       <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="23"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="22"/>
       <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="23"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.5">
@@ -2374,25 +2423,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="15.0625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="10.8125" customWidth="1"/>
-    <col min="6" max="6" width="23.1875" customWidth="1"/>
-    <col min="7" max="7" width="41.1875" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="50.5" customWidth="1"/>
+    <col min="8" max="8" width="45.5" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="22.0625" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2451,76 +2500,50 @@
         <v>89</v>
       </c>
       <c r="G2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" t="s">
-        <v>99</v>
-      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.5">
@@ -2531,9 +2554,6 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2544,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2575,7 +2595,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2583,7 +2603,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
@@ -2607,7 +2627,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
@@ -2671,7 +2691,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -2679,7 +2699,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -2724,10 +2744,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
@@ -2735,28 +2755,48 @@
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="21"/>
@@ -2823,6 +2863,7 @@
       <c r="B45" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2842,8 +2883,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.6875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.0625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/app/config/tables/QPS/forms/QPS/QPS.xlsx
+++ b/app/config/tables/QPS/forms/QPS/QPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\QPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B925854B-7CB2-488B-800B-06E915E82895}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75594573-C8EA-4F15-8419-6F15367EBE8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -358,9 +358,6 @@
     <t>{id_paciente: data('id_paciente'), vnome: data('nome')}</t>
   </si>
   <si>
-    <t>Por favor toca em editar deste ficheiro abaixo e introduza os dados que faltavam na ronda anterior</t>
-  </si>
-  <si>
     <t>Por favor verifica os numeros de formularios que tem abaixo se corresponde com a ronda</t>
   </si>
   <si>
@@ -374,13 +371,20 @@
   </si>
   <si>
     <t>comentario_3</t>
+  </si>
+  <si>
+    <t>sticker</t>
+  </si>
+  <si>
+    <t>Por favor toca em editar deste ficheiro abaixo e introduza os dados que faltavam na ronda anterior.
+&lt;h3&gt;&lt;center&gt;&lt;span style="color:blue"&gt;EDITAR&lt;/h3&gt;&lt;/span&gt;&lt;/center&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,6 +463,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -511,7 +521,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -568,6 +578,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1061,10 +1074,10 @@
   <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1075,8 +1088,8 @@
     <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="45.625" style="6" customWidth="1"/>
     <col min="6" max="6" width="63" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="24.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.75" style="5"/>
     <col min="11" max="16384" width="10.75" style="2"/>
@@ -1167,7 +1180,7 @@
         <v>86</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.5">
@@ -1184,7 +1197,7 @@
       <c r="C6"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C7" s="2" t="s">
         <v>87</v>
       </c>
@@ -1192,8 +1205,9 @@
         <v>101</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
@@ -1207,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.5">
@@ -2562,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2591,51 +2605,51 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B4" s="21" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="20" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
@@ -2643,23 +2657,23 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
@@ -2667,23 +2681,23 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
@@ -2691,15 +2705,15 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -2707,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -2715,23 +2729,23 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="21" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B20" s="21" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
@@ -2739,84 +2753,88 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-    </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-    </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="14"/>
+      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="21"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="21"/>
@@ -2861,6 +2879,10 @@
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/app/config/tables/QPS/forms/QPS/QPS.xlsx
+++ b/app/config/tables/QPS/forms/QPS/QPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\QPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75594573-C8EA-4F15-8419-6F15367EBE8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7649FAF-F1A3-4358-B035-F7C1088BB7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="3675" windowWidth="13680" windowHeight="7605" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -24,14 +24,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$C$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -521,16 +519,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -574,13 +569,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,14 +1010,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>2019090200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1061,60 +1062,55 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="63" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="23.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="24.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="5"/>
+    <col min="10" max="10" width="10.75" style="4"/>
     <col min="11" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>33</v>
       </c>
       <c r="H1" t="s">
@@ -1163,15 +1159,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C3" s="14"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="C4" s="2" t="s">
         <v>87</v>
@@ -1183,11 +1177,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C5"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>100</v>
       </c>
@@ -1197,7 +1191,7 @@
       <c r="C6"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>87</v>
       </c>
@@ -1207,16 +1201,16 @@
       <c r="F7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1227,505 +1221,439 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C18" s="12"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="11"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C19" s="12"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="11"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C20" s="12"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="11"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C30" s="14"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B31" s="6"/>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B37" s="6"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B40" s="6"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B41" s="6"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B42" s="6"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B43" s="6"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B45" s="6"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B46" s="6"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="7"/>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="7"/>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="7"/>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="7"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1737,7 +1665,7 @@
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -1745,7 +1673,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1756,7 +1684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1767,7 +1695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1778,7 +1706,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -1789,7 +1717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -1800,11 +1728,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1815,7 +1743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -1826,11 +1754,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -1841,7 +1769,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -1852,7 +1780,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -1863,7 +1791,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
@@ -1874,7 +1802,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1885,7 +1813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
@@ -1896,7 +1824,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
@@ -1907,531 +1835,526 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2439,12 +2362,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -2459,42 +2382,42 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -2516,11 +2439,11 @@
       <c r="G2" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -2539,35 +2462,35 @@
       <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>90</v>
       </c>
       <c r="I3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H9" s="18"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2582,21 +2505,21 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2604,7 +2527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2612,15 +2535,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2628,7 +2551,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>77</v>
       </c>
@@ -2636,7 +2559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2644,15 +2567,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2660,7 +2583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2668,7 +2591,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -2676,31 +2599,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2708,7 +2631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -2716,7 +2639,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2724,7 +2647,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2732,7 +2655,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2740,15 +2663,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -2756,7 +2679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2764,7 +2687,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>96</v>
       </c>
@@ -2772,11 +2695,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -2784,7 +2707,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -2792,19 +2715,19 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="21" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -2812,86 +2735,81 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="21"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2903,28 +2821,28 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2938,7 +2856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>

--- a/app/config/tables/QPS/forms/QPS/QPS.xlsx
+++ b/app/config/tables/QPS/forms/QPS/QPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\tables\QPS\forms\QPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\tables\QPS\forms\QPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75594573-C8EA-4F15-8419-6F15367EBE8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3346D3BB-6E8E-46C2-8A16-8F154904E224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -24,21 +24,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$C$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>type</t>
   </si>
@@ -112,9 +102,6 @@
     <t>QPS</t>
   </si>
   <si>
-    <t>barcode</t>
-  </si>
-  <si>
     <t>nome</t>
   </si>
   <si>
@@ -340,21 +327,6 @@
     <t>chefe_af</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>dados_adicionais</t>
-  </si>
-  <si>
-    <t>dados_adicional</t>
-  </si>
-  <si>
-    <t>end if</t>
-  </si>
-  <si>
-    <t>!data('mae') || !data ('chefe_af') || !data('AF')</t>
-  </si>
-  <si>
     <t>{id_paciente: data('id_paciente'), vnome: data('nome')}</t>
   </si>
   <si>
@@ -370,21 +342,17 @@
     <t>comentario_2</t>
   </si>
   <si>
-    <t>comentario_3</t>
-  </si>
-  <si>
     <t>sticker</t>
   </si>
   <si>
-    <t>Por favor toca em editar deste ficheiro abaixo e introduza os dados que faltavam na ronda anterior.
-&lt;h3&gt;&lt;center&gt;&lt;span style="color:blue"&gt;EDITAR&lt;/h3&gt;&lt;/span&gt;&lt;/center&gt;</t>
+    <t>assign</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,12 +431,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -529,9 +491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -574,13 +533,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1005,18 +967,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1035,23 +997,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2019090200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+        <v>2020081300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1061,61 +1023,56 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="63" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="23.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="24.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="5"/>
+    <col min="10" max="10" width="10.75" style="4"/>
     <col min="11" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>33</v>
+      <c r="G1" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
@@ -1130,31 +1087,31 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>41</v>
-      </c>
-      <c r="T1" t="s">
-        <v>42</v>
       </c>
       <c r="U1" t="s">
         <v>19</v>
@@ -1163,569 +1120,472 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C3" s="14"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C5"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="C7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="F6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C18" s="12"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C19" s="12"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C20" s="12"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="11"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C16" s="11"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="C30" s="14"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.5">
-      <c r="B32" s="6"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B33" s="6"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E33" s="10"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B37" s="6"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B40" s="6"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B41" s="6"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B42" s="6"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B43" s="6"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="E37" s="10"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
       <c r="B44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B45" s="6"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B46" s="6"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="7"/>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="7"/>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="7"/>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.5">
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="7"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1737,7 +1597,7 @@
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -1745,7 +1605,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1756,695 +1616,690 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -2459,115 +2314,86 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H9" s="18"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2579,319 +2405,310 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="20" t="s">
-        <v>75</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B28" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="21"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2903,53 +2720,53 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/QPS/forms/QPS/QPS.xlsx
+++ b/app/config/tables/QPS/forms/QPS/QPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\tables\QPS\forms\QPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3346D3BB-6E8E-46C2-8A16-8F154904E224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880469F2-5A3D-4BF4-955B-9C2D4EC55455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -968,17 +968,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -989,7 +989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -997,15 +997,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2020081300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2020092600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1037,7 +1037,7 @@
       <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
@@ -1052,7 +1052,7 @@
     <col min="11" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1120,13 +1120,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.5">
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.5">
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4"/>
       <c r="C4" s="2" t="s">
         <v>86</v>
@@ -1138,11 +1138,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C5"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1153,39 +1153,39 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C15" s="11"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -1193,7 +1193,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="C16" s="11"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -1201,7 +1201,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="C17" s="11"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1209,72 +1209,72 @@
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="C18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="C19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="C20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="C21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="C22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B24" s="5"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B27" s="5"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
@@ -1283,7 +1283,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
@@ -1293,7 +1293,7 @@
       <c r="G33" s="7"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="9"/>
@@ -1303,7 +1303,7 @@
       <c r="G34" s="7"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="9"/>
@@ -1312,7 +1312,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="9"/>
@@ -1321,7 +1321,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="9"/>
@@ -1330,7 +1330,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="9"/>
@@ -1339,7 +1339,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="9"/>
@@ -1348,7 +1348,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="24"/>
@@ -1357,7 +1357,7 @@
       <c r="F40" s="23"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="24"/>
@@ -1366,7 +1366,7 @@
       <c r="F41" s="23"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
@@ -1375,7 +1375,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="9"/>
@@ -1384,7 +1384,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="9"/>
@@ -1393,7 +1393,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -1402,7 +1402,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="9"/>
@@ -1411,7 +1411,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="9"/>
@@ -1420,7 +1420,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="9"/>
@@ -1429,147 +1429,147 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
@@ -1597,7 +1597,7 @@
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -1605,7 +1605,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1660,11 +1660,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1686,11 +1686,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -1767,520 +1767,520 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C26" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="C30" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
@@ -2299,7 +2299,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -2314,7 +2314,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
         <v>45</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2375,24 +2375,24 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H8" s="17"/>
     </row>
   </sheetData>
@@ -2408,13 +2408,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>74</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="19" t="s">
         <v>74</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="20" t="s">
         <v>5</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
         <v>95</v>
       </c>
@@ -2598,11 +2598,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -2618,11 +2618,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="20" t="s">
         <v>4</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -2638,71 +2638,71 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="20"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="20"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
     </row>
@@ -2720,14 +2720,14 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
         <v>70</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>76</v>
       </c>

--- a/app/config/tables/QPS/forms/QPS/QPS.xlsx
+++ b/app/config/tables/QPS/forms/QPS/QPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\tables\QPS\forms\QPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880469F2-5A3D-4BF4-955B-9C2D4EC55455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3346D3BB-6E8E-46C2-8A16-8F154904E224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -968,17 +968,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -989,7 +989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -997,15 +997,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2020092600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+        <v>2020081300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1037,7 +1037,7 @@
       <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
@@ -1052,7 +1052,7 @@
     <col min="11" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1120,13 +1120,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J3" s="22"/>
     </row>
-    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="C4" s="2" t="s">
         <v>86</v>
@@ -1138,11 +1138,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C5"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1153,39 +1153,39 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C15" s="11"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -1193,7 +1193,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C16" s="11"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -1201,7 +1201,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" s="11"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1209,72 +1209,72 @@
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9"/>
@@ -1283,7 +1283,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
@@ -1293,7 +1293,7 @@
       <c r="G33" s="7"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="9"/>
@@ -1303,7 +1303,7 @@
       <c r="G34" s="7"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="9"/>
@@ -1312,7 +1312,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="9"/>
@@ -1321,7 +1321,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="9"/>
@@ -1330,7 +1330,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="9"/>
@@ -1339,7 +1339,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="9"/>
@@ -1348,7 +1348,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="24"/>
@@ -1357,7 +1357,7 @@
       <c r="F40" s="23"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="24"/>
@@ -1366,7 +1366,7 @@
       <c r="F41" s="23"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
@@ -1375,7 +1375,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="9"/>
@@ -1384,7 +1384,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="9"/>
@@ -1393,7 +1393,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
@@ -1402,7 +1402,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="9"/>
@@ -1411,7 +1411,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="9"/>
@@ -1420,7 +1420,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="9"/>
@@ -1429,147 +1429,147 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
@@ -1597,7 +1597,7 @@
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -1605,7 +1605,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1660,11 +1660,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1686,11 +1686,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -1767,520 +1767,520 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
@@ -2299,7 +2299,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -2314,7 +2314,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>45</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2375,24 +2375,24 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H6" s="17"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H8" s="17"/>
     </row>
   </sheetData>
@@ -2408,13 +2408,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>74</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>74</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>5</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>95</v>
       </c>
@@ -2598,11 +2598,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -2618,11 +2618,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>4</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -2638,71 +2638,71 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
     </row>
@@ -2720,14 +2720,14 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>70</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
